--- a/config_7.20/game_module_config.xlsx
+++ b/config_7.20/game_module_config.xlsx
@@ -3600,19 +3600,19 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_022_dlphb</t>
+    <t>act_ty_sjb_style/act_023_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_020_pjq</t>
-  </si>
-  <si>
-    <t>啤酒券掉落</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <t>act_ty_by_drop_style/act_021_lxq</t>
+  </si>
+  <si>
+    <t>龙虾券掉落</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_024</t>
+    <t>sys_act_base_style/sys_act_base_weekly_025</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3750,10 +3750,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_005_cjlb</t>
-  </si>
-  <si>
-    <t>抽奖礼包</t>
+    <t>act_ty_gifts_style/act_006_khlb</t>
+  </si>
+  <si>
+    <t>狂欢礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3841,9 +3841,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3928,21 +3928,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3956,23 +3949,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4001,13 +3987,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -4016,11 +3995,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4037,6 +4015,22 @@
       <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4063,9 +4057,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4127,13 +4127,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,19 +4169,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4169,7 +4229,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4181,25 +4271,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,91 +4295,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4354,6 +4354,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -4406,21 +4421,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4429,10 +4429,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,133 +4441,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="30" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5067,7 +5067,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13164,13 +13164,13 @@
         <v>932</v>
       </c>
       <c r="E318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="47">
         <v>44361</v>
@@ -13187,13 +13187,13 @@
         <v>934</v>
       </c>
       <c r="E319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" s="37" t="s">
         <v>935</v>
@@ -13569,13 +13569,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
         <v>978</v>

--- a/config_7.20/game_module_config.xlsx
+++ b/config_7.20/game_module_config.xlsx
@@ -3841,10 +3841,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3928,7 +3928,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3941,16 +3948,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3958,16 +3962,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3984,14 +3981,6 @@
       <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4034,8 +4023,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4051,7 +4041,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4065,15 +4063,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4127,7 +4127,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4139,31 +4151,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4175,19 +4163,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4205,25 +4199,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4241,13 +4223,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4259,43 +4283,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4325,6 +4325,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -4339,17 +4354,46 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4372,52 +4416,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4429,10 +4429,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,16 +4441,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4462,10 +4462,13 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4477,101 +4480,98 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5067,7 +5067,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G335" sqref="G335"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12060,13 +12060,13 @@
         <v>798</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="46">
         <v>44368</v>

--- a/config_7.20/game_module_config.xlsx
+++ b/config_7.20/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1294" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1298" uniqueCount="1009">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3828,6 +3828,15 @@
     <t>Act_042_XSHBManager</t>
   </si>
   <si>
+    <t>act_060_yxcard</t>
+  </si>
+  <si>
+    <t>消消乐游戏卡</t>
+  </si>
+  <si>
+    <t>Act_060_YXCardManager</t>
+  </si>
+  <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
 (也许你的活动很简单，最好是统一都有一个活动自己的管理器)，这个脚本应该提供以下接口：
 Init 初始化Lua
@@ -3841,12 +3850,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="34">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3928,9 +3937,45 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3942,35 +3987,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3985,10 +4009,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -4015,17 +4067,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4050,27 +4093,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4127,7 +4149,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4139,25 +4167,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4175,6 +4203,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4187,13 +4233,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,7 +4251,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4223,7 +4275,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4241,61 +4293,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,6 +4342,35 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4350,26 +4401,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4412,15 +4443,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4429,10 +4451,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4441,139 +4463,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4735,6 +4757,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5060,14 +5092,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="A343" sqref="$A343:$XFD343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13701,7 +13733,7 @@
       <c r="G339">
         <v>0</v>
       </c>
-      <c r="I339" s="54">
+      <c r="I339" s="58">
         <v>44354</v>
       </c>
     </row>
@@ -13781,6 +13813,32 @@
       </c>
       <c r="I342" t="s">
         <v>1001</v>
+      </c>
+    </row>
+    <row r="343" customFormat="1" spans="1:9">
+      <c r="A343" s="54">
+        <v>342</v>
+      </c>
+      <c r="B343" s="55" t="s">
+        <v>1005</v>
+      </c>
+      <c r="C343" s="56" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D343" s="57" t="s">
+        <v>1007</v>
+      </c>
+      <c r="E343" s="5">
+        <v>1</v>
+      </c>
+      <c r="F343" s="5">
+        <v>1</v>
+      </c>
+      <c r="G343" s="5">
+        <v>1</v>
+      </c>
+      <c r="I343" s="18" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -13810,7 +13868,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1005</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_7.20/game_module_config.xlsx
+++ b/config_7.20/game_module_config.xlsx
@@ -11,7 +11,7 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$343</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -3612,7 +3612,7 @@
     <t>龙虾券掉落</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_013_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3850,12 +3850,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="36">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3937,19 +3937,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF191F25"/>
-      <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3965,14 +3952,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -3987,6 +3974,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -3994,30 +3988,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4031,18 +4030,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -4051,32 +4038,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4092,9 +4056,32 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4149,7 +4136,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4161,25 +4184,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4191,13 +4202,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4209,13 +4244,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4227,67 +4280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4305,19 +4298,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4360,15 +4347,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -4390,6 +4368,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -4401,6 +4388,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4428,21 +4430,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4451,10 +4438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4463,139 +4450,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="31" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4758,16 +4745,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5095,11 +5073,11 @@
   <dimension ref="A1:I343"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A343" sqref="$A343:$XFD343"/>
+      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13733,7 +13711,7 @@
       <c r="G339">
         <v>0</v>
       </c>
-      <c r="I339" s="58">
+      <c r="I339" s="55">
         <v>44354</v>
       </c>
     </row>
@@ -13816,16 +13794,16 @@
       </c>
     </row>
     <row r="343" customFormat="1" spans="1:9">
-      <c r="A343" s="54">
+      <c r="A343" s="13">
         <v>342</v>
       </c>
-      <c r="B343" s="55" t="s">
+      <c r="B343" s="32" t="s">
         <v>1005</v>
       </c>
-      <c r="C343" s="56" t="s">
+      <c r="C343" s="54" t="s">
         <v>1006</v>
       </c>
-      <c r="D343" s="57" t="s">
+      <c r="D343" s="28" t="s">
         <v>1007</v>
       </c>
       <c r="E343" s="5">
@@ -13842,7 +13820,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H342">
+  <autoFilter ref="A1:H343">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_7.20/game_module_config.xlsx
+++ b/config_7.20/game_module_config.xlsx
@@ -3750,7 +3750,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_006_khlb</t>
+    <t>act_ty_gifts_style/act_005_khlb</t>
   </si>
   <si>
     <t>狂欢礼包</t>
@@ -3851,8 +3851,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3936,14 +3936,30 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3958,11 +3974,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3981,42 +3997,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4038,9 +4043,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4054,35 +4080,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4136,13 +4136,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4166,7 +4190,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4178,13 +4214,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4196,7 +4238,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4208,13 +4256,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4226,85 +4304,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4333,13 +4333,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4349,6 +4368,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4370,39 +4404,20 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4415,21 +4430,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4438,10 +4438,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4450,137 +4450,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5077,7 +5077,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C333" sqref="C333"/>
+      <selection pane="bottomRight" activeCell="B340" sqref="B340"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
